--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber6\src\test\java\ApachePOI\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber7\src\test\java\ApachePOI\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
